--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -1,218 +1,392 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\github\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C2B990-FCD7-4376-9E19-8C4DC3400C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="585" windowWidth="17640" windowHeight="11385" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView windowWidth="24225" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>*items</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+  </si>
+  <si>
+    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+  </si>
+  <si>
+    <t>枚举项是否唯一</t>
+  </si>
   <si>
     <t>枚举名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别名</t>
   </si>
   <si>
     <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>item.EQuality</t>
+  </si>
+  <si>
+    <t>WHITE</t>
   </si>
   <si>
     <t>白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最差品质</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>蓝色的</t>
+  </si>
+  <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>紫色的</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>红</t>
   </si>
   <si>
     <t>最高品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最差品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举项是否唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.AccessFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum.AccessFlag</t>
   </si>
   <si>
     <t>WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TRUNCATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>READ_WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WRITE|READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.EQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>位标记使用示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PURPLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment.EquipmentFlag</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>剑</t>
+  </si>
+  <si>
+    <t>大剑武器类型</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>斧头</t>
+  </si>
+  <si>
+    <t>斧头武器类型</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>弓箭</t>
+  </si>
+  <si>
+    <t>弓箭武器类型</t>
+  </si>
+  <si>
+    <t>Wand</t>
+  </si>
+  <si>
+    <t>法杖</t>
+  </si>
+  <si>
+    <t>法杖武器类型</t>
+  </si>
+  <si>
+    <t>Arm</t>
+  </si>
+  <si>
+    <t>护手</t>
+  </si>
+  <si>
+    <t>护肩防具类型</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>胸甲</t>
+  </si>
+  <si>
+    <t>胸甲防具类型</t>
+  </si>
+  <si>
+    <t>ShIeId</t>
+  </si>
+  <si>
+    <t>护盾</t>
+  </si>
+  <si>
+    <t>护盾防具类型</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t>头盔防具类型</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>护肩</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>鞋子防具类型</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +395,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -236,26 +596,268 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,18 +870,65 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -328,7 +977,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -361,26 +1010,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -413,23 +1045,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,66 +1186,61 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="9.33333333333333" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="13.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="5.21666666666667" customWidth="1"/>
+    <col min="9" max="9" width="12.1083333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -638,53 +1248,53 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="99" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -693,63 +1303,63 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="7:10">
       <c r="G5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="7:10">
       <c r="G6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="7:10">
       <c r="G7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -758,53 +1368,202 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="7:9">
       <c r="G9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="7:9">
       <c r="G10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:9">
       <c r="G11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="7:10">
       <c r="G12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="7:10">
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="7:10">
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10">
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10">
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10">
+      <c r="G21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10">
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10">
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\TEngine-main\Luban\Config\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A9C80A-579A-4318-B0D9-928B826EC7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>##var</t>
   </si>
@@ -154,78 +148,197 @@
     <t>Arm</t>
   </si>
   <si>
+    <t>护手</t>
+  </si>
+  <si>
     <t>护肩防具类型</t>
   </si>
   <si>
     <t>Armor</t>
   </si>
   <si>
+    <t>胸甲</t>
+  </si>
+  <si>
     <t>胸甲防具类型</t>
   </si>
   <si>
     <t>ShIeId</t>
   </si>
   <si>
+    <t>护盾</t>
+  </si>
+  <si>
     <t>护盾防具类型</t>
   </si>
   <si>
     <t>Helmet</t>
   </si>
   <si>
+    <t>头盔</t>
+  </si>
+  <si>
     <t>头盔防具类型</t>
   </si>
   <si>
     <t>Shoulder</t>
   </si>
   <si>
+    <t>护肩</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
     <t>鞋子防具类型</t>
   </si>
   <si>
     <t>Leg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>护腿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>护腿防具类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头盔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护肩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF.EFFECT</t>
+  </si>
+  <si>
+    <t>BUFF_INVINCIBLE</t>
+  </si>
+  <si>
+    <t>无敌状态</t>
+  </si>
+  <si>
+    <t>无敌Buff,物理和魔法诅咒攻击无效</t>
+  </si>
+  <si>
+    <t>BUFF_PHY_ATK_NOT</t>
+  </si>
+  <si>
+    <t>物理攻击无限</t>
+  </si>
+  <si>
+    <t>物理攻击无效</t>
+  </si>
+  <si>
+    <t>BUFF_MAG_ATK_NOT</t>
+  </si>
+  <si>
+    <t>魔法攻击无效</t>
+  </si>
+  <si>
+    <t>BUFF_IMTY_LMBE_CHAOS_SKLL</t>
+  </si>
+  <si>
+    <t>免疫定身,混乱,封魔状态</t>
+  </si>
+  <si>
+    <t>DEBUFF_FIRE</t>
+  </si>
+  <si>
+    <t>火烧</t>
+  </si>
+  <si>
+    <t>DEBUFF_SKILL_NOT</t>
+  </si>
+  <si>
+    <t>封魔</t>
+  </si>
+  <si>
+    <t>DEBUFF_LMBE</t>
+  </si>
+  <si>
+    <t>定身</t>
+  </si>
+  <si>
+    <t>DEBUFF_CHAOS</t>
+  </si>
+  <si>
+    <t>混乱</t>
+  </si>
+  <si>
+    <t>DEBUFF_PONED</t>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>SKILL.TYPE</t>
+  </si>
+  <si>
+    <t>SwordType</t>
+  </si>
+  <si>
+    <t>剑类</t>
+  </si>
+  <si>
+    <t>Close_Combat</t>
+  </si>
+  <si>
+    <t>近战攻击</t>
+  </si>
+  <si>
+    <t>Magic_Attack</t>
+  </si>
+  <si>
+    <t>CURE</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>SUBSIDIARY</t>
+  </si>
+  <si>
+    <t>辅助攻击</t>
+  </si>
+  <si>
+    <t>游戏中权限等级最高的攻击</t>
+  </si>
+  <si>
+    <t>ATTACK.RANGE</t>
+  </si>
+  <si>
+    <t>SOLO</t>
+  </si>
+  <si>
+    <t>单人</t>
+  </si>
+  <si>
+    <t>CROSS</t>
+  </si>
+  <si>
+    <t>十字</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>某方全部</t>
+  </si>
+  <si>
+    <t>ALL_REAL</t>
+  </si>
+  <si>
+    <t>游戏全屏</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,22 +347,170 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,12 +519,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -323,46 +770,353 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -620,32 +1374,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.00833333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.0083333333333" customWidth="1"/>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="14.675" customWidth="1"/>
+    <col min="5" max="5" width="11.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="6.675" customWidth="1"/>
+    <col min="7" max="7" width="13.675" customWidth="1"/>
+    <col min="8" max="8" width="9.675" customWidth="1"/>
+    <col min="9" max="9" width="13.5083333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.675" customWidth="1"/>
+    <col min="11" max="11" width="6.675" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" ht="18.5" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,23 +1420,23 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" ht="18.5" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
@@ -697,279 +1453,724 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="51.5" customHeight="1" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="8">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="8">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="8">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="8">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="b">
+      <c r="C8" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="b">
+      <c r="D8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="b">
+      <c r="C14" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="b">
+      <c r="D14" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="8">
         <v>1</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="8">
+        <v>3</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="8">
+        <v>4</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="8">
+        <v>5</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I15">
+      <c r="I19" s="8">
+        <v>6</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="8">
+        <v>7</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="8">
+        <v>8</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="7:10">
+      <c r="G27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27">
         <v>2</v>
       </c>
-      <c r="J15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16">
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10">
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28">
         <v>3</v>
       </c>
-      <c r="J16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17">
+      <c r="J28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10">
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29">
         <v>4</v>
       </c>
-      <c r="J17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18">
+      <c r="J29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="7:10">
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30">
         <v>5</v>
       </c>
-      <c r="J18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19">
+      <c r="J30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="7:10">
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31">
         <v>6</v>
       </c>
-      <c r="J19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20">
+      <c r="J31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10">
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32">
         <v>7</v>
       </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21">
+      <c r="J32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10">
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33">
         <v>8</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>55</v>
+      <c r="J33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="3:10">
+      <c r="C34" s="10"/>
+      <c r="D34" s="8"/>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="2:9">
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9">
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9">
+      <c r="G42" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9">
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10">
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" t="s">
+        <v>93</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="2:9">
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9">
+      <c r="G49" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9">
+      <c r="G50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9">
+      <c r="G51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="140">
   <si>
     <t>##var</t>
   </si>
@@ -286,6 +286,15 @@
     <t>Magic_Attack</t>
   </si>
   <si>
+    <t>魔法攻击</t>
+  </si>
+  <si>
+    <t>Curse</t>
+  </si>
+  <si>
+    <t>诅咒魔法</t>
+  </si>
+  <si>
     <t>CURE</t>
   </si>
   <si>
@@ -326,6 +335,105 @@
   </si>
   <si>
     <t>游戏全屏</t>
+  </si>
+  <si>
+    <t>ATTACK.EFFECT</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>最大血量百分比或血量增加</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>最大法力百分比或法力增加</t>
+  </si>
+  <si>
+    <t>MEATK</t>
+  </si>
+  <si>
+    <t>近战攻击力</t>
+  </si>
+  <si>
+    <t>MAGATK</t>
+  </si>
+  <si>
+    <t>魔法攻击力</t>
+  </si>
+  <si>
+    <t>MEDFS</t>
+  </si>
+  <si>
+    <t>近战防御力</t>
+  </si>
+  <si>
+    <t>MAGDFS</t>
+  </si>
+  <si>
+    <t>魔法防御力</t>
+  </si>
+  <si>
+    <t>ELMRES</t>
+  </si>
+  <si>
+    <t>元素抗性</t>
+  </si>
+  <si>
+    <t>CURSERES</t>
+  </si>
+  <si>
+    <t>诅咒抗性</t>
+  </si>
+  <si>
+    <t>PHYHIT</t>
+  </si>
+  <si>
+    <t>物理攻击命中</t>
+  </si>
+  <si>
+    <t>ELMHIT</t>
+  </si>
+  <si>
+    <t>元素魔法命中</t>
+  </si>
+  <si>
+    <t>元素命中</t>
+  </si>
+  <si>
+    <t>EVADE</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>出手速度</t>
+  </si>
+  <si>
+    <t>CRITHIT</t>
+  </si>
+  <si>
+    <t>暴击</t>
+  </si>
+  <si>
+    <t>TOUGH</t>
+  </si>
+  <si>
+    <t>强韧</t>
+  </si>
+  <si>
+    <t>ARMRBK</t>
+  </si>
+  <si>
+    <t>破甲能力</t>
+  </si>
+  <si>
+    <t>破甲</t>
   </si>
 </sst>
 </file>
@@ -338,7 +446,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,12 +457,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -888,137 +990,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,31 +1133,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,10 +1470,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1426,17 +1516,17 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="13"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1454,482 +1544,482 @@
       </c>
     </row>
     <row r="3" ht="51.5" customHeight="1" spans="1:11">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="b">
+      <c r="C4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="b">
+      <c r="D4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>2</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>3</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>4</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="10" t="b">
+      <c r="C8" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="b">
+      <c r="D8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
         <v>1</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>2</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <v>4</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
         <v>8</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="10" t="b">
+      <c r="C14" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="8" t="b">
+      <c r="D14" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <v>2</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <v>3</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>4</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>5</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>6</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="12" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>7</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="8"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="12" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <v>8</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K21" s="8"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="10" t="b">
+      <c r="C26" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D26" s="8" t="b">
+      <c r="D26" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <v>1</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K26" s="8"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="7:10">
       <c r="G27" t="s">
@@ -2030,8 +2120,8 @@
       </c>
     </row>
     <row r="34" ht="16.5" spans="3:10">
-      <c r="C34" s="10"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6"/>
       <c r="G34" t="s">
         <v>82</v>
       </c>
@@ -2049,10 +2139,10 @@
       <c r="B40" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="10" t="b">
+      <c r="C40" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D40" s="8" t="b">
+      <c r="D40" s="6" t="b">
         <v>1</v>
       </c>
       <c r="G40" t="s">
@@ -2081,7 +2171,7 @@
         <v>89</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -2089,80 +2179,310 @@
     </row>
     <row r="43" spans="7:9">
       <c r="G43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="7:10">
+    <row r="44" spans="7:9">
       <c r="G44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I44">
         <v>5</v>
       </c>
-      <c r="J44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" spans="2:9">
-      <c r="B48" t="s">
+    </row>
+    <row r="45" spans="7:10">
+      <c r="G45" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="10" t="b">
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="2:9">
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D48" s="8" t="b">
+      <c r="D49" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="G48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H48" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48">
+      <c r="G49" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49">
         <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="7:9">
-      <c r="G49" t="s">
-        <v>98</v>
-      </c>
-      <c r="H49" t="s">
-        <v>99</v>
-      </c>
-      <c r="I49">
-        <v>2</v>
       </c>
     </row>
     <row r="50" spans="7:9">
       <c r="G50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="7:9">
       <c r="G51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9">
+      <c r="G52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52">
         <v>4</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5" spans="2:10">
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>108</v>
+      </c>
+      <c r="H57" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
+      <c r="G58" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" t="s">
+        <v>111</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
+      <c r="G59" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59" t="s">
+        <v>113</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
+      <c r="G60" t="s">
+        <v>114</v>
+      </c>
+      <c r="H60" t="s">
+        <v>115</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
+      <c r="G61" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
+      <c r="G62" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
+      <c r="G63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H63" t="s">
+        <v>121</v>
+      </c>
+      <c r="I63">
+        <v>7</v>
+      </c>
+      <c r="J63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
+      <c r="G64" t="s">
+        <v>122</v>
+      </c>
+      <c r="H64" t="s">
+        <v>123</v>
+      </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="J64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10">
+      <c r="G65" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" t="s">
+        <v>125</v>
+      </c>
+      <c r="I65">
+        <v>9</v>
+      </c>
+      <c r="J65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
+      <c r="G66" t="s">
+        <v>126</v>
+      </c>
+      <c r="H66" t="s">
+        <v>127</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
+      </c>
+      <c r="J66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
+      <c r="G67" t="s">
+        <v>129</v>
+      </c>
+      <c r="H67" t="s">
+        <v>130</v>
+      </c>
+      <c r="I67">
+        <v>11</v>
+      </c>
+      <c r="J67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
+      <c r="G68" t="s">
+        <v>131</v>
+      </c>
+      <c r="H68" t="s">
+        <v>132</v>
+      </c>
+      <c r="I68">
+        <v>12</v>
+      </c>
+      <c r="J68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
+      <c r="G69" t="s">
+        <v>133</v>
+      </c>
+      <c r="H69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69">
+        <v>13</v>
+      </c>
+      <c r="J69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
+      <c r="G70" t="s">
+        <v>135</v>
+      </c>
+      <c r="H70" t="s">
+        <v>136</v>
+      </c>
+      <c r="I70">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
+      <c r="G71" t="s">
+        <v>137</v>
+      </c>
+      <c r="H71" t="s">
+        <v>138</v>
+      </c>
+      <c r="I71">
+        <v>15</v>
+      </c>
+      <c r="J71" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1472,23 +1472,23 @@
   <sheetPr/>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.00833333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="14.675" customWidth="1"/>
-    <col min="5" max="5" width="11.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="6.675" customWidth="1"/>
-    <col min="7" max="7" width="13.675" customWidth="1"/>
-    <col min="8" max="8" width="9.675" customWidth="1"/>
-    <col min="9" max="9" width="13.5083333333333" customWidth="1"/>
-    <col min="10" max="10" width="14.675" customWidth="1"/>
-    <col min="11" max="11" width="6.675" customWidth="1"/>
+    <col min="1" max="1" width="8.00925925925926" customWidth="1"/>
+    <col min="2" max="2" width="23.0092592592593" customWidth="1"/>
+    <col min="3" max="3" width="40.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="14.6759259259259" customWidth="1"/>
+    <col min="5" max="5" width="11.3425925925926" customWidth="1"/>
+    <col min="6" max="6" width="6.67592592592593" customWidth="1"/>
+    <col min="7" max="7" width="13.6759259259259" customWidth="1"/>
+    <col min="8" max="8" width="9.67592592592593" customWidth="1"/>
+    <col min="9" max="9" width="13.5092592592593" customWidth="1"/>
+    <col min="10" max="10" width="14.6759259259259" customWidth="1"/>
+    <col min="11" max="11" width="6.67592592592593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:11">
@@ -2119,7 +2119,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="3:10">
+    <row r="34" ht="15" spans="3:10">
       <c r="C34" s="7"/>
       <c r="D34" s="6"/>
       <c r="G34" t="s">
@@ -2135,7 +2135,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="2:9">
+    <row r="40" ht="15" spans="2:9">
       <c r="B40" t="s">
         <v>84</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="2:9">
+    <row r="49" ht="15" spans="2:9">
       <c r="B49" t="s">
         <v>98</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="2:10">
+    <row r="57" ht="15" spans="2:10">
       <c r="B57" t="s">
         <v>107</v>
       </c>

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="141">
   <si>
     <t>##var</t>
   </si>
@@ -220,9 +220,6 @@
     <t>BUFF_PHY_ATK_NOT</t>
   </si>
   <si>
-    <t>物理攻击无限</t>
-  </si>
-  <si>
     <t>物理攻击无效</t>
   </si>
   <si>
@@ -335,6 +332,12 @@
   </si>
   <si>
     <t>游戏全屏</t>
+  </si>
+  <si>
+    <t>SELF</t>
+  </si>
+  <si>
+    <t>自身</t>
   </si>
   <si>
     <t>ATTACK.EFFECT</t>
@@ -1472,23 +1475,23 @@
   <sheetPr/>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.00925925925926" customWidth="1"/>
-    <col min="2" max="2" width="23.0092592592593" customWidth="1"/>
-    <col min="3" max="3" width="40.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="14.6759259259259" customWidth="1"/>
-    <col min="5" max="5" width="11.3425925925926" customWidth="1"/>
-    <col min="6" max="6" width="6.67592592592593" customWidth="1"/>
-    <col min="7" max="7" width="13.6759259259259" customWidth="1"/>
-    <col min="8" max="8" width="9.67592592592593" customWidth="1"/>
-    <col min="9" max="9" width="13.5092592592593" customWidth="1"/>
-    <col min="10" max="10" width="14.6759259259259" customWidth="1"/>
-    <col min="11" max="11" width="6.67592592592593" customWidth="1"/>
+    <col min="1" max="1" width="8.00833333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.0083333333333" customWidth="1"/>
+    <col min="3" max="3" width="40.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.675" customWidth="1"/>
+    <col min="5" max="5" width="11.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="6.675" customWidth="1"/>
+    <col min="7" max="7" width="13.675" customWidth="1"/>
+    <col min="8" max="8" width="9.675" customWidth="1"/>
+    <col min="9" max="9" width="13.5083333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.675" customWidth="1"/>
+    <col min="11" max="11" width="6.675" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:11">
@@ -2032,112 +2035,112 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="7:10">
       <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" t="s">
         <v>70</v>
-      </c>
-      <c r="H28" t="s">
-        <v>71</v>
       </c>
       <c r="I28">
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="7:10">
       <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s">
         <v>72</v>
-      </c>
-      <c r="H29" t="s">
-        <v>73</v>
       </c>
       <c r="I29">
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="7:10">
       <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
         <v>74</v>
-      </c>
-      <c r="H30" t="s">
-        <v>75</v>
       </c>
       <c r="I30">
         <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="7:10">
       <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
         <v>76</v>
-      </c>
-      <c r="H31" t="s">
-        <v>77</v>
       </c>
       <c r="I31">
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="7:10">
       <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
         <v>78</v>
-      </c>
-      <c r="H32" t="s">
-        <v>79</v>
       </c>
       <c r="I32">
         <v>7</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="7:10">
       <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
         <v>80</v>
-      </c>
-      <c r="H33" t="s">
-        <v>81</v>
       </c>
       <c r="I33">
         <v>8</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="3:10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="3:10">
       <c r="C34" s="7"/>
       <c r="D34" s="6"/>
       <c r="G34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" t="s">
         <v>82</v>
-      </c>
-      <c r="H34" t="s">
-        <v>83</v>
       </c>
       <c r="I34">
         <v>9</v>
       </c>
       <c r="J34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="2:9">
+      <c r="B40" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="2:9">
-      <c r="B40" t="s">
-        <v>84</v>
       </c>
       <c r="C40" s="7" t="b">
         <v>1</v>
@@ -2146,10 +2149,10 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" t="s">
         <v>85</v>
-      </c>
-      <c r="H40" t="s">
-        <v>86</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -2157,10 +2160,10 @@
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" t="s">
         <v>87</v>
-      </c>
-      <c r="H41" t="s">
-        <v>88</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -2168,10 +2171,10 @@
     </row>
     <row r="42" spans="7:9">
       <c r="G42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" t="s">
         <v>89</v>
-      </c>
-      <c r="H42" t="s">
-        <v>90</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -2179,10 +2182,10 @@
     </row>
     <row r="43" spans="7:9">
       <c r="G43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" t="s">
         <v>91</v>
-      </c>
-      <c r="H43" t="s">
-        <v>92</v>
       </c>
       <c r="I43">
         <v>4</v>
@@ -2190,10 +2193,10 @@
     </row>
     <row r="44" spans="7:9">
       <c r="G44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" t="s">
         <v>93</v>
-      </c>
-      <c r="H44" t="s">
-        <v>94</v>
       </c>
       <c r="I44">
         <v>5</v>
@@ -2201,21 +2204,21 @@
     </row>
     <row r="45" spans="7:10">
       <c r="G45" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45" t="s">
         <v>95</v>
-      </c>
-      <c r="H45" t="s">
-        <v>96</v>
       </c>
       <c r="I45">
         <v>6</v>
       </c>
       <c r="J45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="2:9">
+      <c r="B49" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="49" ht="15" spans="2:9">
-      <c r="B49" t="s">
-        <v>98</v>
       </c>
       <c r="C49" s="7" t="b">
         <v>1</v>
@@ -2224,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" t="s">
         <v>99</v>
-      </c>
-      <c r="H49" t="s">
-        <v>100</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2235,10 +2238,10 @@
     </row>
     <row r="50" spans="7:9">
       <c r="G50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50" t="s">
         <v>101</v>
-      </c>
-      <c r="H50" t="s">
-        <v>102</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -2246,10 +2249,10 @@
     </row>
     <row r="51" spans="7:9">
       <c r="G51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" t="s">
         <v>103</v>
-      </c>
-      <c r="H51" t="s">
-        <v>104</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -2257,18 +2260,29 @@
     </row>
     <row r="52" spans="7:9">
       <c r="G52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" t="s">
         <v>105</v>
-      </c>
-      <c r="H52" t="s">
-        <v>106</v>
       </c>
       <c r="I52">
         <v>4</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="2:10">
+    <row r="53" spans="7:9">
+      <c r="G53" t="s">
+        <v>106</v>
+      </c>
+      <c r="H53" t="s">
+        <v>107</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5" spans="2:10">
       <c r="B57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C57" s="7" t="b">
         <v>1</v>
@@ -2277,212 +2291,212 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="7:10">
       <c r="G58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I58">
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="7:10">
       <c r="G59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I59">
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="7:10">
       <c r="G60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I60">
         <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="7:10">
       <c r="G61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I61">
         <v>5</v>
       </c>
       <c r="J61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="7:10">
       <c r="G62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I62">
         <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="7:10">
       <c r="G63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I63">
         <v>7</v>
       </c>
       <c r="J63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="7:10">
       <c r="G64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H64" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I64">
         <v>8</v>
       </c>
       <c r="J64" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="7:10">
       <c r="G65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I65">
         <v>9</v>
       </c>
       <c r="J65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="7:10">
       <c r="G66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I66">
         <v>10</v>
       </c>
       <c r="J66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="7:10">
       <c r="G67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I67">
         <v>11</v>
       </c>
       <c r="J67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="7:10">
       <c r="G68" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I68">
         <v>12</v>
       </c>
       <c r="J68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="7:10">
       <c r="G69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I69">
         <v>13</v>
       </c>
       <c r="J69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="7:10">
       <c r="G70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I70">
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="7:10">
       <c r="G71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I71">
         <v>15</v>
       </c>
       <c r="J71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1475,23 +1475,23 @@
   <sheetPr/>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.00833333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="40.6333333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.675" customWidth="1"/>
-    <col min="5" max="5" width="11.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="6.675" customWidth="1"/>
-    <col min="7" max="7" width="13.675" customWidth="1"/>
-    <col min="8" max="8" width="9.675" customWidth="1"/>
-    <col min="9" max="9" width="13.5083333333333" customWidth="1"/>
-    <col min="10" max="10" width="14.675" customWidth="1"/>
-    <col min="11" max="11" width="6.675" customWidth="1"/>
+    <col min="1" max="1" width="8.00925925925926" customWidth="1"/>
+    <col min="2" max="2" width="23.0092592592593" customWidth="1"/>
+    <col min="3" max="3" width="40.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="14.6759259259259" customWidth="1"/>
+    <col min="5" max="5" width="11.3425925925926" customWidth="1"/>
+    <col min="6" max="6" width="6.67592592592593" customWidth="1"/>
+    <col min="7" max="7" width="13.6759259259259" customWidth="1"/>
+    <col min="8" max="8" width="9.67592592592593" customWidth="1"/>
+    <col min="9" max="9" width="13.5092592592593" customWidth="1"/>
+    <col min="10" max="10" width="14.6759259259259" customWidth="1"/>
+    <col min="11" max="11" width="6.67592592592593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:11">
@@ -2122,7 +2122,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="3:10">
+    <row r="34" ht="15" spans="3:10">
       <c r="C34" s="7"/>
       <c r="D34" s="6"/>
       <c r="G34" t="s">
@@ -2138,7 +2138,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="2:9">
+    <row r="40" ht="15" spans="2:9">
       <c r="B40" t="s">
         <v>83</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="2:9">
+    <row r="49" ht="15" spans="2:9">
       <c r="B49" t="s">
         <v>97</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="2:10">
+    <row r="57" ht="15" spans="2:10">
       <c r="B57" t="s">
         <v>108</v>
       </c>

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="146">
   <si>
     <t>##var</t>
   </si>
@@ -307,9 +307,42 @@
     <t>游戏中权限等级最高的攻击</t>
   </si>
   <si>
+    <t>SKILL.TARGET</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>全屏</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>队伍</t>
+  </si>
+  <si>
+    <t>ENEMY</t>
+  </si>
+  <si>
+    <t>敌方</t>
+  </si>
+  <si>
     <t>ATTACK.RANGE</t>
   </si>
   <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>全屏范围</t>
+  </si>
+  <si>
+    <t>SELF</t>
+  </si>
+  <si>
+    <t>自身</t>
+  </si>
+  <si>
     <t>SOLO</t>
   </si>
   <si>
@@ -319,25 +352,7 @@
     <t>CROSS</t>
   </si>
   <si>
-    <t>十字</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>某方全部</t>
-  </si>
-  <si>
-    <t>ALL_REAL</t>
-  </si>
-  <si>
-    <t>游戏全屏</t>
-  </si>
-  <si>
-    <t>SELF</t>
-  </si>
-  <si>
-    <t>自身</t>
+    <t>十字范围</t>
   </si>
   <si>
     <t>ATTACK.EFFECT</t>
@@ -1473,25 +1488,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.00925925925926" customWidth="1"/>
-    <col min="2" max="2" width="23.0092592592593" customWidth="1"/>
-    <col min="3" max="3" width="40.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="14.6759259259259" customWidth="1"/>
-    <col min="5" max="5" width="11.3425925925926" customWidth="1"/>
-    <col min="6" max="6" width="6.67592592592593" customWidth="1"/>
-    <col min="7" max="7" width="13.6759259259259" customWidth="1"/>
-    <col min="8" max="8" width="9.67592592592593" customWidth="1"/>
-    <col min="9" max="9" width="13.5092592592593" customWidth="1"/>
-    <col min="10" max="10" width="14.6759259259259" customWidth="1"/>
-    <col min="11" max="11" width="6.67592592592593" customWidth="1"/>
+    <col min="1" max="1" width="8.00833333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.0083333333333" customWidth="1"/>
+    <col min="3" max="3" width="40.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.675" customWidth="1"/>
+    <col min="5" max="5" width="11.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="6.675" customWidth="1"/>
+    <col min="7" max="7" width="13.675" customWidth="1"/>
+    <col min="8" max="8" width="9.675" customWidth="1"/>
+    <col min="9" max="9" width="13.5083333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.675" customWidth="1"/>
+    <col min="11" max="11" width="6.675" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:11">
@@ -2122,7 +2137,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="3:10">
+    <row r="34" ht="16.5" spans="3:10">
       <c r="C34" s="7"/>
       <c r="D34" s="6"/>
       <c r="G34" t="s">
@@ -2138,7 +2153,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="2:9">
+    <row r="40" ht="16.5" spans="2:9">
       <c r="B40" t="s">
         <v>83</v>
       </c>
@@ -2216,287 +2231,336 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="2:9">
-      <c r="B49" t="s">
+    <row r="48" ht="16.5" spans="2:9">
+      <c r="B48" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="7" t="b">
+      <c r="C48" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D49" s="6" t="b">
+      <c r="D48" s="6" t="b">
         <v>1</v>
       </c>
+      <c r="G48" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="3:9">
+      <c r="C49" s="7"/>
+      <c r="D49" s="6"/>
       <c r="G49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="3:9">
+      <c r="C50" s="7"/>
+      <c r="D50" s="6"/>
+      <c r="G50" t="s">
+        <v>102</v>
+      </c>
+      <c r="H50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5" spans="2:9">
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="7:9">
-      <c r="G50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H50" t="s">
-        <v>101</v>
-      </c>
-      <c r="I50">
+      <c r="D54" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" t="s">
+        <v>106</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5" spans="3:9">
+      <c r="C55" s="7"/>
+      <c r="D55" s="6"/>
+      <c r="G55" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" t="s">
+        <v>108</v>
+      </c>
+      <c r="I55">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="7:9">
-      <c r="G51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" t="s">
-        <v>103</v>
-      </c>
-      <c r="I51">
+    <row r="56" ht="16.5" spans="3:9">
+      <c r="C56" s="7"/>
+      <c r="D56" s="6"/>
+      <c r="G56" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" t="s">
+        <v>110</v>
+      </c>
+      <c r="I56">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="7:9">
-      <c r="G52" t="s">
-        <v>104</v>
-      </c>
-      <c r="H52" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52">
+    <row r="57" ht="16.5" spans="3:9">
+      <c r="C57" s="7"/>
+      <c r="D57" s="6"/>
+      <c r="G57" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" t="s">
+        <v>112</v>
+      </c>
+      <c r="I57">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="7:9">
-      <c r="G53" t="s">
-        <v>106</v>
-      </c>
-      <c r="H53" t="s">
-        <v>107</v>
-      </c>
-      <c r="I53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" ht="15" spans="2:10">
-      <c r="B57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="7" t="b">
+    <row r="58" ht="16.5" spans="3:4">
+      <c r="C58" s="7"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" ht="16.5" spans="3:4">
+      <c r="C59" s="7"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="62" ht="16.5" spans="2:10">
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D57" s="6" t="b">
+      <c r="D62" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="G57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H57" t="s">
-        <v>110</v>
-      </c>
-      <c r="I57">
+      <c r="G62" t="s">
+        <v>114</v>
+      </c>
+      <c r="H62" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
-      <c r="J57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10">
-      <c r="G58" t="s">
-        <v>111</v>
-      </c>
-      <c r="H58" t="s">
-        <v>112</v>
-      </c>
-      <c r="I58">
-        <v>2</v>
-      </c>
-      <c r="J58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10">
-      <c r="G59" t="s">
-        <v>113</v>
-      </c>
-      <c r="H59" t="s">
-        <v>114</v>
-      </c>
-      <c r="I59">
-        <v>3</v>
-      </c>
-      <c r="J59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10">
-      <c r="G60" t="s">
+      <c r="J62" t="s">
         <v>115</v>
-      </c>
-      <c r="H60" t="s">
-        <v>116</v>
-      </c>
-      <c r="I60">
-        <v>4</v>
-      </c>
-      <c r="J60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10">
-      <c r="G61" t="s">
-        <v>117</v>
-      </c>
-      <c r="H61" t="s">
-        <v>118</v>
-      </c>
-      <c r="I61">
-        <v>5</v>
-      </c>
-      <c r="J61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10">
-      <c r="G62" t="s">
-        <v>119</v>
-      </c>
-      <c r="H62" t="s">
-        <v>120</v>
-      </c>
-      <c r="I62">
-        <v>6</v>
-      </c>
-      <c r="J62" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="63" spans="7:10">
       <c r="G63" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I63">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="7:10">
       <c r="G64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H64" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I64">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="7:10">
       <c r="G65" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H65" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I65">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="7:10">
       <c r="G66" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H66" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="7:10">
       <c r="G67" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H67" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I67">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J67" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="7:10">
       <c r="G68" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H68" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I68">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J68" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="7:10">
       <c r="G69" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H69" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I69">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J69" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="7:10">
       <c r="G70" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H70" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I70">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J70" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="7:10">
       <c r="G71" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" t="s">
+        <v>133</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+      <c r="J71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
+      <c r="G72" t="s">
+        <v>135</v>
+      </c>
+      <c r="H72" t="s">
+        <v>136</v>
+      </c>
+      <c r="I72">
+        <v>11</v>
+      </c>
+      <c r="J72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
+      <c r="G73" t="s">
+        <v>137</v>
+      </c>
+      <c r="H73" t="s">
         <v>138</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I73">
+        <v>12</v>
+      </c>
+      <c r="J73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
+      <c r="G74" t="s">
         <v>139</v>
       </c>
-      <c r="I71">
+      <c r="H74" t="s">
+        <v>140</v>
+      </c>
+      <c r="I74">
+        <v>13</v>
+      </c>
+      <c r="J74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
+      <c r="G75" t="s">
+        <v>141</v>
+      </c>
+      <c r="H75" t="s">
+        <v>142</v>
+      </c>
+      <c r="I75">
+        <v>14</v>
+      </c>
+      <c r="J75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
+      <c r="G76" t="s">
+        <v>143</v>
+      </c>
+      <c r="H76" t="s">
+        <v>144</v>
+      </c>
+      <c r="I76">
         <v>15</v>
       </c>
-      <c r="J71" t="s">
-        <v>140</v>
+      <c r="J76" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="147">
   <si>
     <t>##var</t>
   </si>
@@ -247,7 +247,7 @@
     <t>封魔</t>
   </si>
   <si>
-    <t>DEBUFF_LMBE</t>
+    <t>DEBUFF_IMMOBILIZE</t>
   </si>
   <si>
     <t>定身</t>
@@ -313,34 +313,37 @@
     <t>None</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>队伍</t>
+  </si>
+  <si>
+    <t>ENEMY</t>
+  </si>
+  <si>
+    <t>敌方</t>
+  </si>
+  <si>
+    <t>SELF</t>
+  </si>
+  <si>
+    <t>自身</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
     <t>全屏</t>
   </si>
   <si>
-    <t>TEAM</t>
-  </si>
-  <si>
-    <t>队伍</t>
-  </si>
-  <si>
-    <t>ENEMY</t>
-  </si>
-  <si>
-    <t>敌方</t>
-  </si>
-  <si>
     <t>ATTACK.RANGE</t>
   </si>
   <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>全屏范围</t>
-  </si>
-  <si>
-    <t>SELF</t>
-  </si>
-  <si>
-    <t>自身</t>
+    <t>全部范围</t>
   </si>
   <si>
     <t>SOLO</t>
@@ -1488,10 +1491,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2031,7 +2034,7 @@
       <c r="H26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" s="6" t="s">
@@ -2277,290 +2280,315 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="2:9">
-      <c r="B54" t="s">
+    <row r="51" spans="7:9">
+      <c r="G51" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D54" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="H51" t="s">
         <v>105</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9">
+      <c r="G52" t="s">
         <v>106</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5" spans="3:9">
+      <c r="H52" t="s">
+        <v>107</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5" spans="3:4">
+      <c r="C54" s="7"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" ht="16.5" spans="3:4">
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
-      <c r="G55" t="s">
-        <v>107</v>
-      </c>
-      <c r="H55" t="s">
-        <v>108</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" ht="16.5" spans="3:9">
+    </row>
+    <row r="56" ht="16.5" spans="3:4">
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
-      <c r="G56" t="s">
-        <v>109</v>
-      </c>
-      <c r="H56" t="s">
-        <v>110</v>
-      </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" ht="16.5" spans="3:9">
+    </row>
+    <row r="57" ht="16.5" spans="3:4">
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
-      <c r="G57" t="s">
-        <v>111</v>
-      </c>
-      <c r="H57" t="s">
-        <v>112</v>
-      </c>
-      <c r="I57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" ht="16.5" spans="3:4">
-      <c r="C58" s="7"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" ht="16.5" spans="3:4">
+    </row>
+    <row r="58" ht="16.5" spans="2:9">
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>106</v>
+      </c>
+      <c r="H58" t="s">
+        <v>109</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5" spans="3:9">
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
-    </row>
-    <row r="62" ht="16.5" spans="2:10">
-      <c r="B62" t="s">
+      <c r="G59" t="s">
+        <v>110</v>
+      </c>
+      <c r="H59" t="s">
+        <v>111</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5" spans="3:9">
+      <c r="C60" s="7"/>
+      <c r="D60" s="6"/>
+      <c r="G60" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="7" t="b">
+      <c r="I60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5" spans="3:4">
+      <c r="C61" s="7"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" ht="16.5" spans="3:4">
+      <c r="C62" s="7"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="65" ht="16.5" spans="2:10">
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D62" s="6" t="b">
+      <c r="D65" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="G62" t="s">
-        <v>114</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G65" t="s">
         <v>115</v>
       </c>
-      <c r="I62">
+      <c r="H65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="J62" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10">
-      <c r="G63" t="s">
+      <c r="J65" t="s">
         <v>116</v>
-      </c>
-      <c r="H63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10">
-      <c r="G64" t="s">
-        <v>118</v>
-      </c>
-      <c r="H64" t="s">
-        <v>119</v>
-      </c>
-      <c r="I64">
-        <v>3</v>
-      </c>
-      <c r="J64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10">
-      <c r="G65" t="s">
-        <v>120</v>
-      </c>
-      <c r="H65" t="s">
-        <v>121</v>
-      </c>
-      <c r="I65">
-        <v>4</v>
-      </c>
-      <c r="J65" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="66" spans="7:10">
       <c r="G66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H66" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="7:10">
       <c r="G67" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H67" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="7:10">
       <c r="G68" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H68" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I68">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="7:10">
       <c r="G69" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H69" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J69" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="7:10">
       <c r="G70" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H70" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I70">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J70" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="7:10">
       <c r="G71" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H71" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I71">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J71" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="7:10">
       <c r="G72" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H72" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I72">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J72" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="7:10">
       <c r="G73" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H73" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I73">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J73" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="7:10">
       <c r="G74" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H74" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I74">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J74" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="7:10">
       <c r="G75" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H75" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I75">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J75" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="7:10">
       <c r="G76" t="s">
+        <v>138</v>
+      </c>
+      <c r="H76" t="s">
+        <v>139</v>
+      </c>
+      <c r="I76">
+        <v>12</v>
+      </c>
+      <c r="J76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
+      <c r="G77" t="s">
+        <v>140</v>
+      </c>
+      <c r="H77" t="s">
+        <v>141</v>
+      </c>
+      <c r="I77">
+        <v>13</v>
+      </c>
+      <c r="J77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
+      <c r="G78" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" t="s">
         <v>143</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I78">
+        <v>14</v>
+      </c>
+      <c r="J78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
+      <c r="G79" t="s">
         <v>144</v>
       </c>
-      <c r="I76">
+      <c r="H79" t="s">
+        <v>145</v>
+      </c>
+      <c r="I79">
         <v>15</v>
       </c>
-      <c r="J76" t="s">
-        <v>145</v>
+      <c r="J79" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="151">
   <si>
     <t>##var</t>
   </si>
@@ -424,10 +437,22 @@
     <t>元素命中</t>
   </si>
   <si>
-    <t>EVADE</t>
-  </si>
-  <si>
-    <t>闪避</t>
+    <t>CURSEHIT</t>
+  </si>
+  <si>
+    <t>诅咒魔法命中</t>
+  </si>
+  <si>
+    <t>诅咒命中</t>
+  </si>
+  <si>
+    <t>MagicPenetration</t>
+  </si>
+  <si>
+    <t>魔法穿透力</t>
+  </si>
+  <si>
+    <t>魔法穿透</t>
   </si>
   <si>
     <t>SPEED</t>
@@ -460,7 +485,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1491,25 +1516,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.00833333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="40.6333333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.675" customWidth="1"/>
-    <col min="5" max="5" width="11.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="6.675" customWidth="1"/>
-    <col min="7" max="7" width="13.675" customWidth="1"/>
-    <col min="8" max="8" width="9.675" customWidth="1"/>
-    <col min="9" max="9" width="13.5083333333333" customWidth="1"/>
-    <col min="10" max="10" width="14.675" customWidth="1"/>
-    <col min="11" max="11" width="6.675" customWidth="1"/>
+    <col min="1" max="1" width="8.00925925925926" customWidth="1"/>
+    <col min="2" max="2" width="23.0092592592593" customWidth="1"/>
+    <col min="3" max="3" width="40.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="14.6759259259259" customWidth="1"/>
+    <col min="5" max="5" width="11.3425925925926" customWidth="1"/>
+    <col min="6" max="6" width="6.67592592592593" customWidth="1"/>
+    <col min="7" max="7" width="13.6759259259259" customWidth="1"/>
+    <col min="8" max="8" width="9.67592592592593" customWidth="1"/>
+    <col min="9" max="9" width="13.5092592592593" customWidth="1"/>
+    <col min="10" max="10" width="14.6759259259259" customWidth="1"/>
+    <col min="11" max="11" width="6.67592592592593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:11">
@@ -2140,7 +2165,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="3:10">
+    <row r="34" ht="15" spans="3:10">
       <c r="C34" s="7"/>
       <c r="D34" s="6"/>
       <c r="G34" t="s">
@@ -2156,7 +2181,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="2:9">
+    <row r="40" ht="15" spans="2:9">
       <c r="B40" t="s">
         <v>83</v>
       </c>
@@ -2234,7 +2259,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="2:9">
+    <row r="48" ht="15" spans="2:9">
       <c r="B48" t="s">
         <v>97</v>
       </c>
@@ -2254,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="3:9">
+    <row r="49" ht="15" spans="3:9">
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="G49" t="s">
@@ -2267,7 +2292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="3:9">
+    <row r="50" ht="15" spans="3:9">
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
       <c r="G50" t="s">
@@ -2302,23 +2327,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="3:4">
+    <row r="54" ht="15" spans="3:4">
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" ht="16.5" spans="3:4">
+    <row r="55" ht="15" spans="3:4">
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" ht="16.5" spans="3:4">
+    <row r="56" ht="15" spans="3:4">
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" ht="16.5" spans="3:4">
+    <row r="57" ht="15" spans="3:4">
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" ht="16.5" spans="2:9">
+    <row r="58" ht="15" spans="2:9">
       <c r="B58" t="s">
         <v>108</v>
       </c>
@@ -2338,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="3:9">
+    <row r="59" ht="15" spans="3:9">
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
       <c r="G59" t="s">
@@ -2351,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="3:9">
+    <row r="60" ht="15" spans="3:9">
       <c r="C60" s="7"/>
       <c r="D60" s="6"/>
       <c r="G60" t="s">
@@ -2364,15 +2389,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="3:4">
+    <row r="61" ht="15" spans="3:4">
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" ht="16.5" spans="3:4">
+    <row r="62" ht="15" spans="3:4">
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
     </row>
-    <row r="65" ht="16.5" spans="2:10">
+    <row r="65" ht="15" spans="2:10">
       <c r="B65" t="s">
         <v>114</v>
       </c>
@@ -2532,63 +2557,77 @@
         <v>11</v>
       </c>
       <c r="J75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="7:10">
       <c r="G76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H76" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I76">
         <v>12</v>
       </c>
       <c r="J76" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="7:10">
       <c r="G77" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H77" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I77">
         <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="7:10">
       <c r="G78" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H78" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I78">
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="7:10">
       <c r="G79" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H79" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I79">
         <v>15</v>
       </c>
       <c r="J79" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
+      <c r="G80" t="s">
+        <v>148</v>
+      </c>
+      <c r="H80" t="s">
+        <v>149</v>
+      </c>
+      <c r="I80">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="153">
   <si>
     <t>##var</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>近战攻击</t>
+  </si>
+  <si>
+    <t>Ranged_Combat</t>
+  </si>
+  <si>
+    <t>远程攻击</t>
   </si>
   <si>
     <t>Magic_Attack</t>
@@ -1516,10 +1522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2245,7 +2251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="7:10">
+    <row r="45" spans="7:9">
       <c r="G45" t="s">
         <v>94</v>
       </c>
@@ -2255,85 +2261,88 @@
       <c r="I45">
         <v>6</v>
       </c>
-      <c r="J45" t="s">
+    </row>
+    <row r="46" spans="7:10">
+      <c r="G46" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" ht="15" spans="2:9">
-      <c r="B48" t="s">
+      <c r="H46" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="7" t="b">
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="J46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="2:9">
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D48" s="6" t="b">
+      <c r="D50" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="G48" t="s">
-        <v>98</v>
-      </c>
-      <c r="H48" t="s">
-        <v>99</v>
-      </c>
-      <c r="I48">
+      <c r="G50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="3:9">
-      <c r="C49" s="7"/>
-      <c r="D49" s="6"/>
-      <c r="G49" t="s">
-        <v>100</v>
-      </c>
-      <c r="H49" t="s">
-        <v>101</v>
-      </c>
-      <c r="I49">
+    <row r="51" ht="15" spans="3:9">
+      <c r="C51" s="7"/>
+      <c r="D51" s="6"/>
+      <c r="G51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51">
         <v>2</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="3:9">
-      <c r="C50" s="7"/>
-      <c r="D50" s="6"/>
-      <c r="G50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H50" t="s">
-        <v>103</v>
-      </c>
-      <c r="I50">
+    <row r="52" ht="15" spans="3:9">
+      <c r="C52" s="7"/>
+      <c r="D52" s="6"/>
+      <c r="G52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="7:9">
-      <c r="G51" t="s">
-        <v>104</v>
-      </c>
-      <c r="H51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I51">
+    <row r="53" spans="7:9">
+      <c r="G53" t="s">
+        <v>106</v>
+      </c>
+      <c r="H53" t="s">
+        <v>107</v>
+      </c>
+      <c r="I53">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="7:9">
-      <c r="G52" t="s">
-        <v>106</v>
-      </c>
-      <c r="H52" t="s">
-        <v>107</v>
-      </c>
-      <c r="I52">
+    <row r="54" spans="7:9">
+      <c r="G54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H54" t="s">
+        <v>109</v>
+      </c>
+      <c r="I54">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" ht="15" spans="3:4">
-      <c r="C54" s="7"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" ht="15" spans="3:4">
-      <c r="C55" s="7"/>
-      <c r="D55" s="6"/>
     </row>
     <row r="56" ht="15" spans="3:4">
       <c r="C56" s="7"/>
@@ -2343,291 +2352,299 @@
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" ht="15" spans="2:9">
-      <c r="B58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>106</v>
-      </c>
-      <c r="H58" t="s">
-        <v>109</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" ht="15" spans="3:9">
+    <row r="58" ht="15" spans="3:4">
+      <c r="C58" s="7"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" ht="15" spans="3:4">
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
-      <c r="G59" t="s">
+    </row>
+    <row r="60" ht="15" spans="2:9">
+      <c r="B60" t="s">
         <v>110</v>
       </c>
-      <c r="H59" t="s">
+      <c r="C60" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H60" t="s">
         <v>111</v>
       </c>
-      <c r="I59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" ht="15" spans="3:9">
-      <c r="C60" s="7"/>
-      <c r="D60" s="6"/>
-      <c r="G60" t="s">
-        <v>112</v>
-      </c>
-      <c r="H60" t="s">
-        <v>113</v>
-      </c>
       <c r="I60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" ht="15" spans="3:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="3:9">
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
-    </row>
-    <row r="62" ht="15" spans="3:4">
+      <c r="G61" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" t="s">
+        <v>113</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="3:9">
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
-    </row>
-    <row r="65" ht="15" spans="2:10">
-      <c r="B65" t="s">
+      <c r="G62" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="7" t="b">
+      <c r="H62" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="3:4">
+      <c r="C63" s="7"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" ht="15" spans="3:4">
+      <c r="C64" s="7"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="67" ht="15" spans="2:10">
+      <c r="B67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D65" s="6" t="b">
+      <c r="D67" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="G65" t="s">
-        <v>115</v>
-      </c>
-      <c r="H65" t="s">
-        <v>116</v>
-      </c>
-      <c r="I65">
+      <c r="G67" t="s">
+        <v>117</v>
+      </c>
+      <c r="H67" t="s">
+        <v>118</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="J65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10">
-      <c r="G66" t="s">
-        <v>117</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="J67" t="s">
         <v>118</v>
-      </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
-      <c r="J66" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10">
-      <c r="G67" t="s">
-        <v>119</v>
-      </c>
-      <c r="H67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="J67" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="68" spans="7:10">
       <c r="G68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="7:10">
       <c r="G69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="7:10">
       <c r="G70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="7:10">
       <c r="G71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="7:10">
       <c r="G72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="7:10">
       <c r="G73" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I73">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="7:10">
       <c r="G74" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I74">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J74" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="7:10">
       <c r="G75" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J75" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="7:10">
       <c r="G76" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H76" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I76">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J76" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="7:10">
       <c r="G77" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H77" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I77">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="7:10">
       <c r="G78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I78">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="7:10">
       <c r="G79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I79">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="7:10">
       <c r="G80" t="s">
+        <v>146</v>
+      </c>
+      <c r="H80" t="s">
+        <v>147</v>
+      </c>
+      <c r="I80">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10">
+      <c r="G81" t="s">
         <v>148</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H81" t="s">
         <v>149</v>
       </c>
-      <c r="I80">
+      <c r="I81">
+        <v>15</v>
+      </c>
+      <c r="J81" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10">
+      <c r="G82" t="s">
+        <v>150</v>
+      </c>
+      <c r="H82" t="s">
+        <v>151</v>
+      </c>
+      <c r="I82">
         <v>16</v>
       </c>
-      <c r="J80" t="s">
-        <v>150</v>
+      <c r="J82" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
